--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T17:40:42+00:00</t>
+    <t>2024-12-04T09:18:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:18:19+00:00</t>
+    <t>2024-12-04T09:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:49:47+00:00</t>
+    <t>2024-12-04T11:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T11:23:03+00:00</t>
+    <t>2024-12-04T13:30:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6149,7 +6149,7 @@
         <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>75</v>
@@ -6260,7 +6260,7 @@
         <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>75</v>
@@ -9810,7 +9810,7 @@
         <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>75</v>
@@ -10478,7 +10478,7 @@
         <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>75</v>
@@ -11146,7 +11146,7 @@
         <v>77</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>75</v>
@@ -11814,7 +11814,7 @@
         <v>77</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>75</v>
@@ -12482,7 +12482,7 @@
         <v>77</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>75</v>
@@ -13584,7 +13584,7 @@
         <v>77</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>75</v>
@@ -14686,7 +14686,7 @@
         <v>77</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>75</v>
@@ -15354,7 +15354,7 @@
         <v>85</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>75</v>
@@ -16022,7 +16022,7 @@
         <v>77</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>75</v>
@@ -16690,7 +16690,7 @@
         <v>77</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>75</v>
@@ -17358,7 +17358,7 @@
         <v>77</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>75</v>
@@ -18026,7 +18026,7 @@
         <v>85</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>75</v>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T13:30:21+00:00</t>
+    <t>2024-12-05T17:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T17:47:14+00:00</t>
+    <t>2024-12-06T16:44:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T16:44:21+00:00</t>
+    <t>2024-12-06T17:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T17:37:38+00:00</t>
+    <t>2024-12-06T18:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:32:50+00:00</t>
+    <t>2024-12-09T16:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:49:27+00:00</t>
+    <t>2024-12-09T17:27:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T17:27:37+00:00</t>
+    <t>2024-12-09T17:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T17:49:22+00:00</t>
+    <t>2024-12-09T18:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T18:09:54+00:00</t>
+    <t>2024-12-10T08:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:23:40+00:00</t>
+    <t>2024-12-10T13:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
